--- a/Bitácoras_excel/Bitácora_7.xlsx
+++ b/Bitácoras_excel/Bitácora_7.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
   <si>
     <t>BITÁCORA DE SEGUIMIENTO ETAPA PRODUCTIVA</t>
   </si>
@@ -397,79 +397,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>https://n9.cl/ei862</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Separación de documentación:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cada estudiante tiene sus papales, debía separarlos en dos "paquetes", otro relacionado con todo lo de pagaduría ("Carta de instrucciones anexa al pagaré", "Pagaré", el contrato, fotocopia del pago, fotocopia de la cédula y rut del responsable económico) y el otro para secretaría (T.I. del estudiante, boletín de notas, paz y salvo y todo lo relacionado con documentación de estudios).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Separación de llaves y pilas:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Me hicieron entrega de una caja y dos bolsas, donde debía clasificar en una bolsa las llaves y en la otra, las pilas, pero rectificando el estado de cada llave, si se encontraba partida o desgastada, simplemente la desechaba.</t>
-    </r>
-  </si>
-  <si>
-    <t>https://n9.cl/e9bap</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Facturas:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Primero debía tomar solamente las tirillas, agruparlas y acomodarlas en la fotocopiadora, para que cupieran varias en una hoja, luego, recortarlas, engancharlas con cada tirilla correspondiente, colocar un sello de "CANCELADO" y por último organizarlas todas por orden de fecha.</t>
-    </r>
-  </si>
-  <si>
-    <t>https://n9.cl/w0gsj2</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Recepción todos los días de 2:00 p.m. a 3:00 p.m.:
 </t>
@@ -487,6 +414,246 @@
   </si>
   <si>
     <t>22 de enero 2025 al 05 de febrero de 2025</t>
+  </si>
+  <si>
+    <t>Activación de Microsoft Office en los computadores de música y auditorio.</t>
+  </si>
+  <si>
+    <t>https://n9.cl/yya8j</t>
+  </si>
+  <si>
+    <t>https://n9.cl/g3950</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fotocopiar contratos estudiantiles:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+De cada grado, debía fotocopiar cierta cantidad de contratos, según me era asignada.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://n9.cl/wws8d</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Formato control de fotocopias 2025:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Todas las fotocopias que son autorizadas por coordinación académica, deben ser anotadas en el archivo excel.
+Se debe buscar el grado u oficina, anotar la fecha, la materia, la cantidad de fotocopias, las páginas y el tamaño.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://n9.cl/0odoc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fotocopias:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Para todas las fotocopias, debo primeramente revisar si están autorizadas, es decir, visualizar la fecha y firma con letra de la coordinadora académica.
+Algunas veces, los profesores necesitan imprimir paquetes, de tres o más hojas, por lo cual, fotocopio todas las hojas, las divido en grupos y luego las voy “intercalando”, para finalmente grapar y armar cada paquete como lo requieren.
+En el momento, simplemente las escribo en una hojita, donde apunto la fecha, la materia, el grado, la cantidad de hojas por páginas y el tamaño de las fotocopias, porque finalmente, 
+debo digitarlas en el “FORMATO CONTROL DE FOTOCOPIAS 2025”, lo cual es un archivo Excel, donde se lleva todo el registro de las fotocopias.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://n9.cl/ublhu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mantenimiento computadores:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A cada computador, debía entrar a los archivos temporales, para eliminarlos. Igualmente tuve que vaciar las descargas y la papelera de reciclaje finalmente.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://n9.cl/gbxfk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organizar documentación:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Para todos los grados, me proporcionaron un listado con el orden correcto que debía seguir cada paquete de documentos de cada estudiante. Por lo tanto, debía organizar los papeles de esa manera, pero si faltaba algún documento del listado, tenía que escribirlo en la primera hoja, a lápiz</t>
+    </r>
+  </si>
+  <si>
+    <t>https://n9.cl/89dqr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organizar paquetes de documentos por grados:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Me hicieron entrega de las listas de todos los grados, donde se encuentran los nombres de los estudiantes, por orden alfabético, por lo tanto, primero, debía separar los paquetes por grados y luego, organizar todos los paquetes de cada grado, en orden alfabético, guiándome por la lista. Si un estudiante era nuevo y no estaba en la lista, simplemente debía escribirlo a lápiz, en la parte inferior.
+Finalmente, debía tomar una carpeta, pegar un pedazo de cinta y escribir el grado.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://n9.cl/7vk53</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Revisión general de equipos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Tuve que ir a cada salón para revisar lo siguiente:
+*Encender los ventiladores y las luces.
+*Conectar todos los elementos de los equipos, la UPC directa a la corriente, el computador a la UPC y el televisor directo a la corriente de igual manera.
+*Conectar el cable del internet un extremo al computador y el otro, a la toma de red.
+*Conectar el cable HDMI al computador y televisor.
+*Conectar el teclado y mouse al computador, para verificar que estaban funcionales.
+*Encender la UPC, el computador, el televisor y ensayar el control del televisor, porque en un salón debí cambiar las pilas.
+Finalmente, por medio de WhatsApp, iba enviando foto de todo a Zurellya, para dejar un registro con evidencias de todas las revisiones e informarle los daños o anomalías.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://n9.cl/d97gg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso para subir los cambios realizados a git hub, desde Git:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Realicé el paso a paso para subir los cambios realizados y así actualizar el repositorio de las evidencias, además de guardar mi propio registro de todos los documentos word, pdf y excel relacionados con las evidencias de las bitácoras.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://n9.cl/iipirs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -880,7 +1047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -960,6 +1127,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -969,9 +1172,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -984,246 +1184,297 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1237,85 +1488,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1359,7 +1550,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns="" xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1601,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns="" xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,13 +1630,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1503,13 +1694,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1556,7 +1747,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-CO" sz="1200"/>
-            <a:t>21/01/2025</a:t>
+            <a:t>07/02/2025</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1567,13 +1758,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1631,13 +1822,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1679,13 +1870,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>11207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>73413</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1729,13 +1920,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>28459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>231321</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>167368</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2161,47 +2352,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="2:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="25" t="s">
         <v>101</v>
       </c>
@@ -2210,15 +2401,15 @@
       <c r="N4" s="16"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="26" t="s">
         <v>81</v>
       </c>
@@ -2228,277 +2419,277 @@
       <c r="O5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34" t="s">
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="19"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -2508,391 +2699,391 @@
       <c r="B27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
     </row>
     <row r="29" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="2:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32" t="s">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
     </row>
     <row r="32" spans="2:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32" t="s">
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
     </row>
     <row r="40" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
     </row>
     <row r="41" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
     </row>
     <row r="42" spans="2:11" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32" t="s">
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
     </row>
     <row r="43" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="31"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="43"/>
     </row>
     <row r="45" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
     </row>
     <row r="46" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
     </row>
     <row r="47" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B47" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="31"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="43"/>
     </row>
     <row r="48" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
     </row>
     <row r="49" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="22"/>
@@ -2920,19 +3111,37 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="B50:K50"/>
     <mergeCell ref="B9:K21"/>
     <mergeCell ref="C28:G28"/>
@@ -2949,37 +3158,19 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2988,10 +3179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AD41"/>
+  <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3015,175 +3206,175 @@
     <col min="26" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="92" t="s">
+    <row r="1" spans="2:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-    </row>
-    <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="66" t="s">
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+    </row>
+    <row r="2" spans="2:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-    </row>
-    <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="98" t="s">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+    </row>
+    <row r="3" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-    </row>
-    <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="98" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+    </row>
+    <row r="4" spans="2:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-    </row>
-    <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="112" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+    </row>
+    <row r="5" spans="2:28" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="114"/>
-    </row>
-    <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="55"/>
+    </row>
+    <row r="6" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="114"/>
-    </row>
-    <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="55"/>
+    </row>
+    <row r="7" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="56" t="s">
         <v>0</v>
       </c>
@@ -3211,101 +3402,101 @@
       <c r="X7" s="57"/>
       <c r="Y7" s="57"/>
     </row>
-    <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="50"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-    </row>
-    <row r="9" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="65" t="s">
+    <row r="8" spans="2:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+    </row>
+    <row r="9" spans="2:28" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="62" t="s">
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="65" t="s">
+      <c r="Q9" s="113"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-    </row>
-    <row r="10" spans="2:25" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="79" t="s">
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+    </row>
+    <row r="10" spans="2:28" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="65">
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="74">
         <v>860033785</v>
       </c>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="62">
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="61">
         <v>7</v>
       </c>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-    </row>
-    <row r="11" spans="2:25" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="113"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+    </row>
+    <row r="11" spans="2:28" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3331,71 +3522,71 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="91" t="s">
+    <row r="12" spans="2:28" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="86" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86" t="s">
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-    </row>
-    <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="88" t="s">
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+    </row>
+    <row r="13" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="67">
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="51">
         <v>3168343728</v>
       </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="87" t="s">
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-    </row>
-    <row r="14" spans="2:25" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+    </row>
+    <row r="14" spans="2:28" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3421,101 +3612,104 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="116" t="s">
+    <row r="15" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="116"/>
-    </row>
-    <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="84" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+    </row>
+    <row r="16" spans="2:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84" t="s">
+      <c r="C16" s="68"/>
+      <c r="D16" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="84" t="s">
+      <c r="F16" s="68"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="105" t="s">
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="106"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="84" t="s">
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="84" t="s">
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="T16" s="84"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="84" t="s">
+      <c r="T16" s="68"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="48"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="92"/>
+      <c r="AB16" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="17" spans="2:30" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="48"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="92"/>
     </row>
     <row r="18" spans="2:30" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
@@ -3544,16 +3738,16 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:30" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
       <c r="J19" s="56" t="s">
         <v>83</v>
       </c>
@@ -3568,33 +3762,33 @@
       <c r="Q19" s="57"/>
       <c r="R19" s="57"/>
       <c r="S19" s="57"/>
-      <c r="T19" s="58" t="s">
+      <c r="T19" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="60"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="111"/>
     </row>
     <row r="20" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="67">
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="51">
         <v>1077722640</v>
       </c>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
       <c r="O20" s="56">
         <v>3162745203</v>
       </c>
@@ -3602,14 +3796,14 @@
       <c r="Q20" s="57"/>
       <c r="R20" s="57"/>
       <c r="S20" s="57"/>
-      <c r="T20" s="61" t="s">
+      <c r="T20" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="60"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="111"/>
     </row>
     <row r="21" spans="2:30" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
@@ -3638,64 +3832,64 @@
       <c r="Y21" s="8"/>
     </row>
     <row r="22" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="65" t="s">
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="103"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
     </row>
     <row r="23" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="79">
+      <c r="B23" s="95">
         <v>2694667</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="79" t="s">
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="81"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="97"/>
     </row>
     <row r="24" spans="2:30" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
@@ -3724,420 +3918,491 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:30" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="62" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="82"/>
-      <c r="M25" s="62" t="s">
+      <c r="L25" s="62"/>
+      <c r="M25" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="82"/>
-      <c r="O25" s="62" t="s">
+      <c r="N25" s="62"/>
+      <c r="O25" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="62" t="s">
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="83"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="63"/>
     </row>
     <row r="26" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="75">
-        <v>45664</v>
-      </c>
-      <c r="L26" s="76"/>
-      <c r="M26" s="75">
-        <v>45678</v>
-      </c>
-      <c r="N26" s="76"/>
-      <c r="O26" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
+      <c r="B26" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="107">
+        <v>45679</v>
+      </c>
+      <c r="L26" s="108"/>
+      <c r="M26" s="107">
+        <v>45693</v>
+      </c>
+      <c r="N26" s="108"/>
+      <c r="O26" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
     </row>
     <row r="27" spans="2:30" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
       <c r="AD27" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="2:30" s="28" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54">
-        <v>45664</v>
-      </c>
-      <c r="L28" s="55"/>
-      <c r="M28" s="54">
-        <v>45678</v>
-      </c>
-      <c r="N28" s="55"/>
-      <c r="O28" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-    </row>
-    <row r="29" spans="2:30" s="28" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="53" t="s">
+    <row r="28" spans="2:30" s="29" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="154" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="152">
+        <v>45679</v>
+      </c>
+      <c r="L28" s="151"/>
+      <c r="M28" s="152">
+        <v>45693</v>
+      </c>
+      <c r="N28" s="151"/>
+      <c r="O28" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54">
-        <v>45664</v>
-      </c>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54">
-        <v>45678</v>
-      </c>
-      <c r="N29" s="54"/>
-      <c r="O29" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-    </row>
-    <row r="30" spans="2:30" s="28" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="148" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54">
-        <v>45664</v>
-      </c>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54">
-        <v>45678</v>
-      </c>
-      <c r="N30" s="54"/>
-      <c r="O30" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-    </row>
-    <row r="31" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-    </row>
-    <row r="32" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-    </row>
-    <row r="33" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="8"/>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B34" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="50" t="s">
-        <v>16</v>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="97"/>
+    </row>
+    <row r="29" spans="2:30" s="29" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="154" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="152">
+        <v>45679</v>
+      </c>
+      <c r="L29" s="151"/>
+      <c r="M29" s="152">
+        <v>45693</v>
+      </c>
+      <c r="N29" s="151"/>
+      <c r="O29" s="153" t="s">
+        <v>131</v>
+      </c>
+      <c r="P29" s="150"/>
+      <c r="Q29" s="150"/>
+      <c r="R29" s="150"/>
+      <c r="S29" s="150"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="96"/>
+      <c r="X29" s="96"/>
+      <c r="Y29" s="97"/>
+    </row>
+    <row r="30" spans="2:30" s="29" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="154" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="152">
+        <v>45679</v>
+      </c>
+      <c r="L30" s="151"/>
+      <c r="M30" s="152">
+        <v>45693</v>
+      </c>
+      <c r="N30" s="151"/>
+      <c r="O30" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="150"/>
+      <c r="Q30" s="150"/>
+      <c r="R30" s="150"/>
+      <c r="S30" s="150"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="96"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="97"/>
+    </row>
+    <row r="31" spans="2:30" s="29" customFormat="1" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="154" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="152">
+        <v>45679</v>
+      </c>
+      <c r="L31" s="151"/>
+      <c r="M31" s="152">
+        <v>45693</v>
+      </c>
+      <c r="N31" s="151"/>
+      <c r="O31" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="150"/>
+      <c r="Q31" s="150"/>
+      <c r="R31" s="150"/>
+      <c r="S31" s="150"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="97"/>
+    </row>
+    <row r="32" spans="2:30" s="29" customFormat="1" ht="238.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="152">
+        <v>45679</v>
+      </c>
+      <c r="L32" s="151"/>
+      <c r="M32" s="152">
+        <v>45693</v>
+      </c>
+      <c r="N32" s="151"/>
+      <c r="O32" s="153" t="s">
+        <v>129</v>
+      </c>
+      <c r="P32" s="150"/>
+      <c r="Q32" s="150"/>
+      <c r="R32" s="150"/>
+      <c r="S32" s="150"/>
+      <c r="T32" s="151"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="97"/>
+    </row>
+    <row r="33" spans="2:25" s="29" customFormat="1" ht="297.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="154" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="152">
+        <v>45679</v>
+      </c>
+      <c r="L33" s="151"/>
+      <c r="M33" s="152">
+        <v>45693</v>
+      </c>
+      <c r="N33" s="151"/>
+      <c r="O33" s="153" t="s">
+        <v>137</v>
+      </c>
+      <c r="P33" s="150"/>
+      <c r="Q33" s="150"/>
+      <c r="R33" s="150"/>
+      <c r="S33" s="150"/>
+      <c r="T33" s="151"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="97"/>
+    </row>
+    <row r="34" spans="2:25" s="28" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="117">
+        <v>45679</v>
       </c>
       <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
+      <c r="M34" s="117">
+        <v>45693</v>
+      </c>
       <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
+      <c r="O34" s="49" t="s">
+        <v>139</v>
+      </c>
       <c r="P34" s="50"/>
       <c r="Q34" s="50"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="11"/>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="11"/>
-    </row>
-    <row r="36" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="92"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="92"/>
+      <c r="Y34" s="92"/>
+    </row>
+    <row r="35" spans="2:25" s="28" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="117">
+        <v>45679</v>
+      </c>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117">
+        <v>45693</v>
+      </c>
+      <c r="N35" s="117"/>
+      <c r="O35" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+    </row>
+    <row r="36" spans="2:25" s="28" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="117">
+        <v>45679</v>
+      </c>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117">
+        <v>45693</v>
+      </c>
+      <c r="N36" s="117"/>
+      <c r="O36" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="92"/>
     </row>
     <row r="37" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-    </row>
-    <row r="38" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-    </row>
-    <row r="39" spans="2:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="111"/>
-    </row>
-    <row r="40" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="96" t="s">
-        <v>80</v>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+    </row>
+    <row r="38" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+    </row>
+    <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="8"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B40" s="52" t="s">
+        <v>86</v>
       </c>
       <c r="C40" s="52"/>
       <c r="D40" s="52"/>
@@ -4146,55 +4411,286 @@
       <c r="G40" s="52"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="52" t="s">
+        <v>17</v>
+      </c>
       <c r="U40" s="52"/>
       <c r="V40" s="52"/>
       <c r="W40" s="52"/>
       <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
+      <c r="Y40" s="11"/>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="11"/>
+    </row>
+    <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+    </row>
+    <row r="43" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+    </row>
+    <row r="44" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+    </row>
+    <row r="45" spans="2:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+    </row>
+    <row r="46" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
+      <c r="V47" s="71"/>
+      <c r="W47" s="71"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="Q39:U39"/>
+  <mergeCells count="114">
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="O30:T30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="B26:J27"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="M26:N27"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="B46:Y47"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:Y22"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="Q45:U45"/>
     <mergeCell ref="O26:T27"/>
     <mergeCell ref="U26:Y27"/>
-    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="T40:X40"/>
     <mergeCell ref="B5:Y5"/>
     <mergeCell ref="B7:Y7"/>
     <mergeCell ref="B8:Y8"/>
@@ -4207,85 +4703,24 @@
     <mergeCell ref="B6:Y6"/>
     <mergeCell ref="V16:X17"/>
     <mergeCell ref="U16:U17"/>
-    <mergeCell ref="B40:Y41"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:Y22"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B26:J27"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="M26:N27"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="O30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="S38:Y38"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q13" r:id="rId1"/>
     <hyperlink ref="T20" r:id="rId2"/>
-    <hyperlink ref="O28" r:id="rId3"/>
-    <hyperlink ref="O26" r:id="rId4"/>
-    <hyperlink ref="O29" r:id="rId5"/>
+    <hyperlink ref="O36" r:id="rId3"/>
+    <hyperlink ref="O28" r:id="rId4"/>
+    <hyperlink ref="O26" r:id="rId5"/>
+    <hyperlink ref="O35" r:id="rId6"/>
+    <hyperlink ref="O32" r:id="rId7"/>
+    <hyperlink ref="O29" r:id="rId8"/>
+    <hyperlink ref="O30" r:id="rId9"/>
+    <hyperlink ref="O31" r:id="rId10"/>
+    <hyperlink ref="O33" r:id="rId11"/>
+    <hyperlink ref="O34" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="91" orientation="landscape" horizontalDpi="4294967294" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup scale="91" orientation="landscape" horizontalDpi="4294967294" r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -4305,124 +4740,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="124" t="s">
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="147"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="144" t="s">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
-      <c r="V4" s="145"/>
-      <c r="W4" s="145"/>
-      <c r="X4" s="146"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="126"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="126"/>
+      <c r="X4" s="127"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="141"/>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="143"/>
+      <c r="A5" s="122"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="124"/>
     </row>
     <row r="6" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -4451,66 +4886,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122" t="s">
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122" t="s">
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="129" t="s">
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="129" t="s">
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="131"/>
+      <c r="Q8" s="131"/>
+      <c r="R8" s="131"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="132"/>
     </row>
     <row r="9" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -4539,66 +4974,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="116"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48" t="s">
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
     </row>
     <row r="12" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -4627,66 +5062,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122" t="s">
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122" t="s">
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="129" t="s">
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="129" t="s">
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="130"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="131"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="131"/>
+      <c r="X14" s="132"/>
     </row>
     <row r="15" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -4715,184 +5150,172 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="132" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="49" t="s">
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="133" t="s">
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="133"/>
-      <c r="V16" s="133"/>
-      <c r="W16" s="133"/>
-      <c r="X16" s="133"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="134" t="s">
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="123" t="s">
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="123" t="s">
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="125"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="134"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="126"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="126"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="128"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="136"/>
+      <c r="V18" s="136"/>
+      <c r="W18" s="136"/>
+      <c r="X18" s="137"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="121" t="s">
+      <c r="J21" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="149"/>
+      <c r="P21" s="149"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="121" t="s">
+      <c r="R21" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
+      <c r="S21" s="149"/>
+      <c r="T21" s="149"/>
+      <c r="U21" s="149"/>
+      <c r="V21" s="149"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="149"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P23" s="118" t="s">
+      <c r="P23" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="119" t="s">
+      <c r="Q23" s="146"/>
+      <c r="R23" s="146"/>
+      <c r="S23" s="146"/>
+      <c r="T23" s="146"/>
+      <c r="U23" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="119"/>
-      <c r="W23" s="119"/>
-      <c r="X23" s="119"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="147"/>
+      <c r="X23" s="147"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P24" s="118" t="s">
+      <c r="P24" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="120" t="s">
+      <c r="Q24" s="146"/>
+      <c r="R24" s="146"/>
+      <c r="S24" s="146"/>
+      <c r="T24" s="146"/>
+      <c r="U24" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="120"/>
-      <c r="W24" s="120"/>
-      <c r="X24" s="120"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="148"/>
+      <c r="X24" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -4907,13 +5330,25 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>

--- a/Bitácoras_excel/Bitácora_7.xlsx
+++ b/Bitácoras_excel/Bitácora_7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8904" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8904" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -1130,9 +1130,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1163,42 +1184,223 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1208,202 +1410,84 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1422,92 +1506,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1550,7 +1550,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" xmlns="" val="1"/>
+              <adec:decorative xmlns="" xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1601,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" xmlns="" val="1"/>
+              <adec:decorative xmlns="" xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,47 +2352,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="2:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="25" t="s">
         <v>101</v>
       </c>
@@ -2401,15 +2401,15 @@
       <c r="N4" s="16"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="26" t="s">
         <v>81</v>
       </c>
@@ -2419,277 +2419,277 @@
       <c r="O5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
     </row>
     <row r="23" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="19"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -2699,391 +2699,391 @@
       <c r="B27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
     </row>
     <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
     </row>
     <row r="29" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30" t="s">
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
     </row>
     <row r="30" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
     </row>
     <row r="31" spans="2:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
     </row>
     <row r="32" spans="2:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
     </row>
     <row r="34" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
     </row>
     <row r="37" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
     </row>
     <row r="40" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
     </row>
     <row r="41" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
     </row>
     <row r="42" spans="2:11" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30" t="s">
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
     </row>
     <row r="43" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="43"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="32"/>
     </row>
     <row r="45" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
     </row>
     <row r="46" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
     </row>
     <row r="47" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B47" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="43"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="32"/>
     </row>
     <row r="48" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
     </row>
     <row r="49" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="22"/>
@@ -3111,6 +3111,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B9:K21"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="H34:K34"/>
@@ -3127,50 +3171,6 @@
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B9:K21"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3181,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3207,294 +3207,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="82" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
     </row>
     <row r="2" spans="2:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="84" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
     </row>
     <row r="3" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
     </row>
     <row r="4" spans="2:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
     </row>
     <row r="5" spans="2:28" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="55"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="123"/>
     </row>
     <row r="6" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="55"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="123"/>
     </row>
     <row r="7" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
     </row>
     <row r="8" spans="2:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="124"/>
     </row>
     <row r="9" spans="2:28" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74" t="s">
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="61" t="s">
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="74" t="s">
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
     </row>
     <row r="10" spans="2:28" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="74">
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="77">
         <v>860033785</v>
       </c>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="61">
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="74">
         <v>7</v>
       </c>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="91" t="s">
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
     </row>
     <row r="11" spans="2:28" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
@@ -3534,57 +3534,57 @@
       <c r="H12" s="100"/>
       <c r="I12" s="100"/>
       <c r="J12" s="100"/>
-      <c r="K12" s="93" t="s">
+      <c r="K12" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93" t="s">
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
     </row>
     <row r="13" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
       <c r="J13" s="99"/>
-      <c r="K13" s="51">
+      <c r="K13" s="79">
         <v>3168343728</v>
       </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="94" t="s">
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
     </row>
     <row r="14" spans="2:28" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
@@ -3613,103 +3613,103 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
     </row>
     <row r="16" spans="2:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="68" t="s">
+      <c r="F16" s="93"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="76" t="s">
+      <c r="I16" s="93"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="68" t="s">
+      <c r="L16" s="115"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="68" t="s">
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="T16" s="68"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="68" t="s">
+      <c r="T16" s="93"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="92"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="59"/>
       <c r="AB16" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:30" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="92"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="59"/>
     </row>
     <row r="18" spans="2:30" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
@@ -3738,72 +3738,72 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:30" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="56" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="56" t="s">
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="64" t="s">
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="111"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="72"/>
     </row>
     <row r="20" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="51">
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="79">
         <v>1077722640</v>
       </c>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="56">
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="68">
         <v>3162745203</v>
       </c>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="112" t="s">
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="111"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="72"/>
     </row>
     <row r="21" spans="2:30" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
@@ -3832,64 +3832,64 @@
       <c r="Y21" s="8"/>
     </row>
     <row r="22" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="74" t="s">
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="112"/>
     </row>
     <row r="23" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="95">
+      <c r="B23" s="55">
         <v>2694667</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="95" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="97"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="57"/>
     </row>
     <row r="24" spans="2:30" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
@@ -3918,409 +3918,409 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:30" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="61" t="s">
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="62"/>
-      <c r="M25" s="61" t="s">
+      <c r="L25" s="91"/>
+      <c r="M25" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="62"/>
-      <c r="O25" s="61" t="s">
+      <c r="N25" s="91"/>
+      <c r="O25" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="61" t="s">
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="63"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="92"/>
     </row>
     <row r="26" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="107">
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="87">
         <v>45679</v>
       </c>
-      <c r="L26" s="108"/>
-      <c r="M26" s="107">
+      <c r="L26" s="88"/>
+      <c r="M26" s="87">
         <v>45693</v>
       </c>
-      <c r="N26" s="108"/>
-      <c r="O26" s="49" t="s">
+      <c r="N26" s="88"/>
+      <c r="O26" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
     </row>
     <row r="27" spans="2:30" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
       <c r="AD27" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" spans="2:30" s="29" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="154" t="s">
+      <c r="B28" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="152">
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51">
         <v>45679</v>
       </c>
-      <c r="L28" s="151"/>
-      <c r="M28" s="152">
+      <c r="L28" s="52"/>
+      <c r="M28" s="51">
         <v>45693</v>
       </c>
-      <c r="N28" s="151"/>
-      <c r="O28" s="153" t="s">
+      <c r="N28" s="52"/>
+      <c r="O28" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="150"/>
-      <c r="R28" s="150"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="151"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="97"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="57"/>
     </row>
     <row r="29" spans="2:30" s="29" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="154" t="s">
+      <c r="B29" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="152">
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51">
         <v>45679</v>
       </c>
-      <c r="L29" s="151"/>
-      <c r="M29" s="152">
+      <c r="L29" s="52"/>
+      <c r="M29" s="51">
         <v>45693</v>
       </c>
-      <c r="N29" s="151"/>
-      <c r="O29" s="153" t="s">
+      <c r="N29" s="52"/>
+      <c r="O29" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="150"/>
-      <c r="Q29" s="150"/>
-      <c r="R29" s="150"/>
-      <c r="S29" s="150"/>
-      <c r="T29" s="151"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="97"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="57"/>
     </row>
     <row r="30" spans="2:30" s="29" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="154" t="s">
+      <c r="B30" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="152">
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51">
         <v>45679</v>
       </c>
-      <c r="L30" s="151"/>
-      <c r="M30" s="152">
+      <c r="L30" s="52"/>
+      <c r="M30" s="51">
         <v>45693</v>
       </c>
-      <c r="N30" s="151"/>
-      <c r="O30" s="153" t="s">
+      <c r="N30" s="52"/>
+      <c r="O30" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="P30" s="150"/>
-      <c r="Q30" s="150"/>
-      <c r="R30" s="150"/>
-      <c r="S30" s="150"/>
-      <c r="T30" s="151"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="97"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="57"/>
     </row>
     <row r="31" spans="2:30" s="29" customFormat="1" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="154" t="s">
+      <c r="B31" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="152">
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51">
         <v>45679</v>
       </c>
-      <c r="L31" s="151"/>
-      <c r="M31" s="152">
+      <c r="L31" s="52"/>
+      <c r="M31" s="51">
         <v>45693</v>
       </c>
-      <c r="N31" s="151"/>
-      <c r="O31" s="153" t="s">
+      <c r="N31" s="52"/>
+      <c r="O31" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="P31" s="150"/>
-      <c r="Q31" s="150"/>
-      <c r="R31" s="150"/>
-      <c r="S31" s="150"/>
-      <c r="T31" s="151"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="97"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="57"/>
     </row>
     <row r="32" spans="2:30" s="29" customFormat="1" ht="238.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="154" t="s">
+      <c r="B32" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="152">
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51">
         <v>45679</v>
       </c>
-      <c r="L32" s="151"/>
-      <c r="M32" s="152">
+      <c r="L32" s="52"/>
+      <c r="M32" s="51">
         <v>45693</v>
       </c>
-      <c r="N32" s="151"/>
-      <c r="O32" s="153" t="s">
+      <c r="N32" s="52"/>
+      <c r="O32" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="P32" s="150"/>
-      <c r="Q32" s="150"/>
-      <c r="R32" s="150"/>
-      <c r="S32" s="150"/>
-      <c r="T32" s="151"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="97"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="57"/>
     </row>
     <row r="33" spans="2:25" s="29" customFormat="1" ht="297.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="154" t="s">
+      <c r="B33" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="152">
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51">
         <v>45679</v>
       </c>
-      <c r="L33" s="151"/>
-      <c r="M33" s="152">
+      <c r="L33" s="52"/>
+      <c r="M33" s="51">
         <v>45693</v>
       </c>
-      <c r="N33" s="151"/>
-      <c r="O33" s="153" t="s">
+      <c r="N33" s="52"/>
+      <c r="O33" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="P33" s="150"/>
-      <c r="Q33" s="150"/>
-      <c r="R33" s="150"/>
-      <c r="S33" s="150"/>
-      <c r="T33" s="151"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="97"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="57"/>
     </row>
     <row r="34" spans="2:25" s="28" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="117">
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="66">
         <v>45679</v>
       </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="117">
+      <c r="L34" s="67"/>
+      <c r="M34" s="66">
         <v>45693</v>
       </c>
-      <c r="N34" s="50"/>
-      <c r="O34" s="49" t="s">
+      <c r="N34" s="67"/>
+      <c r="O34" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="92"/>
-      <c r="V34" s="92"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="92"/>
-      <c r="Y34" s="92"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
     </row>
     <row r="35" spans="2:25" s="28" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="117">
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="66">
         <v>45679</v>
       </c>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117">
+      <c r="L35" s="66"/>
+      <c r="M35" s="66">
         <v>45693</v>
       </c>
-      <c r="N35" s="117"/>
-      <c r="O35" s="49" t="s">
+      <c r="N35" s="66"/>
+      <c r="O35" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="92"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
     </row>
     <row r="36" spans="2:25" s="28" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="117">
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="66">
         <v>45679</v>
       </c>
-      <c r="L36" s="117"/>
-      <c r="M36" s="117">
+      <c r="L36" s="66"/>
+      <c r="M36" s="66">
         <v>45693</v>
       </c>
-      <c r="N36" s="117"/>
-      <c r="O36" s="49" t="s">
+      <c r="N36" s="66"/>
+      <c r="O36" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="92"/>
-      <c r="V36" s="92"/>
-      <c r="W36" s="92"/>
-      <c r="X36" s="92"/>
-      <c r="Y36" s="92"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
     </row>
     <row r="37" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
@@ -4401,35 +4401,35 @@
       <c r="Y39" s="8"/>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="58" t="s">
+      <c r="K40" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
       <c r="R40" s="13"/>
       <c r="S40" s="11"/>
-      <c r="T40" s="52" t="s">
+      <c r="T40" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
       <c r="Y40" s="11"/>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.3">
@@ -4459,14 +4459,14 @@
       <c r="Y41" s="11"/>
     </row>
     <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
     </row>
     <row r="43" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="14"/>
@@ -4495,177 +4495,112 @@
       <c r="Y43" s="12"/>
     </row>
     <row r="44" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="58" t="s">
+      <c r="K44" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
-      <c r="Q44" s="58"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
       <c r="R44" s="13"/>
-      <c r="S44" s="118" t="s">
+      <c r="S44" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
     </row>
     <row r="45" spans="2:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q45" s="48"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="120"/>
+      <c r="T45" s="120"/>
+      <c r="U45" s="120"/>
     </row>
     <row r="46" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
-      <c r="Y46" s="71"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="63"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="63"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="63"/>
+      <c r="Y46" s="63"/>
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="63"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="63"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="63"/>
+      <c r="Y47" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="O30:T30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="B26:J27"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="M26:N27"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B5:Y5"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B8:Y8"/>
+    <mergeCell ref="B15:Y15"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="B6:Y6"/>
+    <mergeCell ref="V16:X17"/>
+    <mergeCell ref="U16:U17"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="B1:V2"/>
@@ -4690,19 +4625,84 @@
     <mergeCell ref="Q45:U45"/>
     <mergeCell ref="O26:T27"/>
     <mergeCell ref="U26:Y27"/>
+    <mergeCell ref="B26:J27"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="M26:N27"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:T35"/>
+    <mergeCell ref="U35:Y35"/>
     <mergeCell ref="T40:X40"/>
-    <mergeCell ref="B5:Y5"/>
-    <mergeCell ref="B7:Y7"/>
-    <mergeCell ref="B8:Y8"/>
-    <mergeCell ref="B15:Y15"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="B6:Y6"/>
-    <mergeCell ref="V16:X17"/>
-    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="O30:T30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B32:J32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q13" r:id="rId1"/>
@@ -4740,124 +4740,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="128" t="s">
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
+      <c r="U3" s="156"/>
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="156"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="125" t="s">
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="127"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154"/>
+      <c r="X4" s="155"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="122"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="123"/>
-      <c r="V5" s="123"/>
-      <c r="W5" s="123"/>
-      <c r="X5" s="124"/>
+      <c r="A5" s="150"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="152"/>
     </row>
     <row r="6" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -4886,66 +4886,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121" t="s">
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121" t="s">
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="131"/>
+      <c r="U7" s="131"/>
+      <c r="V7" s="131"/>
+      <c r="W7" s="131"/>
+      <c r="X7" s="131"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="130" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="130" t="s">
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="132"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="140"/>
     </row>
     <row r="9" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -4974,66 +4974,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92" t="s">
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
     </row>
     <row r="12" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -5062,66 +5062,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121" t="s">
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121" t="s">
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="130" t="s">
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="130" t="s">
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="131"/>
-      <c r="T14" s="131"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="131"/>
-      <c r="X14" s="132"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="140"/>
     </row>
     <row r="15" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -5150,71 +5150,71 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="138" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="52" t="s">
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="139" t="s">
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="139"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="142"/>
+      <c r="X16" s="142"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
       <c r="I17" s="134"/>
-      <c r="J17" s="140" t="s">
+      <c r="J17" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="133" t="s">
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
       <c r="S17" s="134"/>
-      <c r="T17" s="133" t="s">
+      <c r="T17" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
       <c r="X17" s="134"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5227,10 +5227,10 @@
       <c r="G18" s="136"/>
       <c r="H18" s="136"/>
       <c r="I18" s="137"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="145"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="148"/>
       <c r="N18" s="135"/>
       <c r="O18" s="136"/>
       <c r="P18" s="136"/>
@@ -5246,76 +5246,88 @@
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="149" t="s">
+      <c r="J21" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="149"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="149"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="149"/>
-      <c r="P21" s="149"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="130"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="149" t="s">
+      <c r="R21" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="149"/>
-      <c r="T21" s="149"/>
-      <c r="U21" s="149"/>
-      <c r="V21" s="149"/>
-      <c r="W21" s="149"/>
-      <c r="X21" s="149"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="130"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P23" s="146" t="s">
+      <c r="P23" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="146"/>
-      <c r="T23" s="146"/>
-      <c r="U23" s="147" t="s">
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="147"/>
-      <c r="W23" s="147"/>
-      <c r="X23" s="147"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P24" s="146" t="s">
+      <c r="P24" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="146"/>
-      <c r="R24" s="146"/>
-      <c r="S24" s="146"/>
-      <c r="T24" s="146"/>
-      <c r="U24" s="148" t="s">
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="148"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="129"/>
+      <c r="X24" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -5330,25 +5342,13 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>
